--- a/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>767</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3328</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6657</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>143395</t>
+          <t>160652</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>141864</t>
+          <t>159179</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>144366</t>
+          <t>161449</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>140805</t>
+          <t>165984</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>139119</t>
+          <t>164286</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>141836</t>
+          <t>167263</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>284200</t>
+          <t>326636</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>282279</t>
+          <t>324418</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>285770</t>
+          <t>328151</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145192</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288396</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>7201</t>
+          <t>7771</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79143</t>
+          <t>88077</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77424</t>
+          <t>86268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80114</t>
+          <t>89100</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>106037</t>
+          <t>119360</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>104396</t>
+          <t>117291</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>107243</t>
+          <t>120639</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>185180</t>
+          <t>207437</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>182824</t>
+          <t>205035</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>186708</t>
+          <t>209180</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>108953</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190025</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5773</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5804</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7496</t>
+          <t>7396</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10407</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>159071</t>
+          <t>150291</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>156997</t>
+          <t>148659</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>160419</t>
+          <t>151485</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59395</t>
+          <t>57607</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57388</t>
+          <t>55629</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60741</t>
+          <t>59147</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218466</t>
+          <t>207898</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>215555</t>
+          <t>205311</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>220644</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162770</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63192</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>225962</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7469</t>
+          <t>6995</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>7923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5869</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10716</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13126</t>
+          <t>12813</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10338</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16811</t>
+          <t>16300</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>165030</t>
+          <t>165602</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>162561</t>
+          <t>163497</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>166834</t>
+          <t>167228</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>169597</t>
+          <t>175105</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>167007</t>
+          <t>172394</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>171854</t>
+          <t>177164</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>334627</t>
+          <t>340707</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>330942</t>
+          <t>337220</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>337415</t>
+          <t>343157</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177723</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347753</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7545</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5205</t>
+          <t>5308</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9634</t>
+          <t>10138</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>8577</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6345</t>
+          <t>6297</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11325</t>
+          <t>11141</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74923</t>
+          <t>72803</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>71794</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75737</t>
+          <t>73385</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>125481</t>
+          <t>117707</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>123007</t>
+          <t>115114</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>127436</t>
+          <t>119944</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>200405</t>
+          <t>190509</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>197657</t>
+          <t>187904</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>202637</t>
+          <t>192748</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132641</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>208982</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>555</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2877</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6686</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4940</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>7494</t>
+          <t>6115</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44571</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43377</t>
+          <t>53191</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>113396</t>
+          <t>118768</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111217</t>
+          <t>116960</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>115026</t>
+          <t>120100</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>157967</t>
+          <t>173385</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>155413</t>
+          <t>171456</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>159627</t>
+          <t>174894</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,49%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45004</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>117903</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11062</t>
+          <t>10105</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17738</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24776</t>
+          <t>24785</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>33930</t>
+          <t>34395</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>37750</t>
+          <t>36413</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>49006</t>
+          <t>48049</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>666133</t>
+          <t>692042</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>662670</t>
+          <t>689025</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>669346</t>
+          <t>695196</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>714711</t>
+          <t>754530</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>709686</t>
+          <t>749616</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>718840</t>
+          <t>759226</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1380845</t>
+          <t>1446572</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1375019</t>
+          <t>1441263</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1386275</t>
+          <t>1452899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>680408</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743616</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1424025</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7996</t>
+          <t>8606</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23380</t>
+          <t>23283</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>10550</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24742</t>
+          <t>24757</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21805</t>
+          <t>21535</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>42564</t>
+          <t>41905</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>342471</t>
+          <t>342568</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>357855</t>
+          <t>357245</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>274159</t>
+          <t>274144</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>288908</t>
+          <t>288351</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>622188</t>
+          <t>622847</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>642947</t>
+          <t>643217</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>8089</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21597</t>
+          <t>21829</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9172</t>
+          <t>9020</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21449</t>
+          <t>20950</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>19908</t>
+          <t>19388</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37153</t>
+          <t>37737</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>302450</t>
+          <t>302218</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>316417</t>
+          <t>315958</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>238632</t>
+          <t>239131</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>250909</t>
+          <t>251061</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>546975</t>
+          <t>546391</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>564220</t>
+          <t>564740</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,68%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34902</t>
+          <t>35173</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>5074</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14453</t>
+          <t>14150</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7092</t>
+          <t>6581</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>48208</t>
+          <t>47260</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>439803</t>
+          <t>439532</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471931</t>
+          <t>470384</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83111</t>
+          <t>83414</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92055</t>
+          <t>92490</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>85,5%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>524061</t>
+          <t>525009</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>565177</t>
+          <t>565688</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>21223</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42095</t>
+          <t>42951</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13331</t>
+          <t>13868</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58610</t>
+          <t>58742</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>37398</t>
+          <t>37069</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88144</t>
+          <t>87037</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>494060</t>
+          <t>493204</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>515373</t>
+          <t>514932</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>577178</t>
+          <t>577046</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>622457</t>
+          <t>621920</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1083799</t>
+          <t>1084906</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1134545</t>
+          <t>1134874</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6451</t>
+          <t>6275</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20552</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26367</t>
+          <t>25208</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>61430</t>
+          <t>59767</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>41727</t>
+          <t>39889</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75143</t>
+          <t>76420</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>190149</t>
+          <t>189951</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>204250</t>
+          <t>204426</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>361277</t>
+          <t>362940</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>396340</t>
+          <t>397499</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>558265</t>
+          <t>556988</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>591681</t>
+          <t>593519</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,7%</t>
         </is>
       </c>
     </row>
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22742</t>
+          <t>22046</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>33909</t>
+          <t>32944</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57885</t>
+          <t>56759</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>41037</t>
+          <t>42246</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>69434</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144019</t>
+          <t>144715</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>162126</t>
+          <t>162862</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>432624</t>
+          <t>433750</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>456600</t>
+          <t>457565</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>584194</t>
+          <t>587836</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>616233</t>
+          <t>615024</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63216</t>
+          <t>62487</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>120937</t>
+          <t>121772</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>117102</t>
+          <t>124449</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>195366</t>
+          <t>198383</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>206388</t>
+          <t>203864</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>305061</t>
+          <t>302906</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1957284</t>
+          <t>1956449</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2015005</t>
+          <t>2015734</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2010183</t>
+          <t>2007166</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2088447</t>
+          <t>2081100</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3978709</t>
+          <t>3980864</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4077382</t>
+          <t>4079906</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>95,24%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>15143</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>8897</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>24434</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>18836</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>12421</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>28294</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>33979</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>23973</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6657</t>
+          <t>46007</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>160652</t>
+          <t>379320</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>159179</t>
+          <t>370029</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>161449</t>
+          <t>385566</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165984</t>
+          <t>308790</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164286</t>
+          <t>299332</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>167263</t>
+          <t>315205</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>813</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>326636</t>
+          <t>688111</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>324418</t>
+          <t>676083</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>328151</t>
+          <t>698117</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>96,68%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>394463</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168859</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>853</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331075</t>
+          <t>722090</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>14818</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>9044</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>24589</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>15068</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>9810</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>21929</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5369</t>
+          <t>29886</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3626</t>
+          <t>21452</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>40318</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88077</t>
+          <t>329529</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86268</t>
+          <t>319758</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89100</t>
+          <t>335303</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>119360</t>
+          <t>271872</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117291</t>
+          <t>265011</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120639</t>
+          <t>277130</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>207437</t>
+          <t>601401</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>205035</t>
+          <t>590969</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>209180</t>
+          <t>609835</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>96,6%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90268</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122538</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>212806</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3068</t>
+          <t>16685</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>26408</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4328</t>
+          <t>9884</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>15105</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>26569</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>18504</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9983</t>
+          <t>37507</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150291</t>
+          <t>243003</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148659</t>
+          <t>233280</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151485</t>
+          <t>249698</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57607</t>
+          <t>101602</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55629</t>
+          <t>96381</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59147</t>
+          <t>106023</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>207898</t>
+          <t>344605</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>205311</t>
+          <t>333667</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>352670</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>95,01%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153359</t>
+          <t>259688</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61935</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215294</t>
+          <t>371174</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4890</t>
+          <t>34520</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>24562</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6995</t>
+          <t>49353</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7923</t>
+          <t>40716</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5864</t>
+          <t>32011</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10634</t>
+          <t>51486</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12813</t>
+          <t>75236</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>62069</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16300</t>
+          <t>93389</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>165602</t>
+          <t>575462</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>163497</t>
+          <t>560629</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>167228</t>
+          <t>585420</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>609</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>175105</t>
+          <t>448574</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>172394</t>
+          <t>437804</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>177164</t>
+          <t>457279</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>340707</t>
+          <t>1024036</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>337220</t>
+          <t>1005883</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>343157</t>
+          <t>1037203</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>94,35%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170492</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489290</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489290</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>183028</t>
+          <t>489290</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099272</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099272</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>353520</t>
+          <t>1099272</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>13172</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>6617</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>21748</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7545</t>
+          <t>53696</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>43001</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10138</t>
+          <t>65152</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>8536</t>
+          <t>66868</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>6297</t>
+          <t>54988</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>82171</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72803</t>
+          <t>239588</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71794</t>
+          <t>231012</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73385</t>
+          <t>246143</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>501</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>117707</t>
+          <t>352927</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>115114</t>
+          <t>341471</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>119944</t>
+          <t>363622</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>719</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>190509</t>
+          <t>592515</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>187904</t>
+          <t>577212</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>192748</t>
+          <t>604395</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>91,66%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>252760</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>252760</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>252760</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>406623</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>406623</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125252</t>
+          <t>406623</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>814</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>659383</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>659383</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199045</t>
+          <t>659383</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>11106</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>22804</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3631</t>
+          <t>47697</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>36252</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>61436</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>58802</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>46268</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6115</t>
+          <t>75386</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54618</t>
+          <t>158391</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53191</t>
+          <t>146693</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>164996</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>633</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>118768</t>
+          <t>499780</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>116960</t>
+          <t>486041</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>120100</t>
+          <t>511225</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>703</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>173385</t>
+          <t>658172</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>171456</t>
+          <t>641588</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>174894</t>
+          <t>670706</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55173</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>699</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122399</t>
+          <t>547477</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>177571</t>
+          <t>716974</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13259</t>
+          <t>105444</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10105</t>
+          <t>84800</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16276</t>
+          <t>128143</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>272</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29481</t>
+          <t>185896</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24785</t>
+          <t>164665</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>34395</t>
+          <t>209440</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>376</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>42740</t>
+          <t>291340</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>36413</t>
+          <t>261646</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>48049</t>
+          <t>324313</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>692042</t>
+          <t>1925293</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>689025</t>
+          <t>1902594</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>695196</t>
+          <t>1945937</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>754530</t>
+          <t>1983547</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>749616</t>
+          <t>1960003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>759226</t>
+          <t>2004778</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8124</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1446572</t>
+          <t>3908840</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1441263</t>
+          <t>3875867</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1452899</t>
+          <t>3938534</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>93,77%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030737</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030737</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>705301</t>
+          <t>2030737</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2169443</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2169443</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>784011</t>
+          <t>2169443</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>4826</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4200180</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4200180</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489312</t>
+          <t>4200180</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14597</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8606</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23283</t>
+          <t>9076</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16250</t>
+          <t>5787</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10550</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24757</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>30847</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21535</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>41905</t>
+          <t>15892</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>351254</t>
+          <t>291118</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>342568</t>
+          <t>286447</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>357245</t>
+          <t>293700</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>458</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>282651</t>
+          <t>270885</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>274144</t>
+          <t>266462</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>288351</t>
+          <t>273712</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>633905</t>
+          <t>562001</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>622847</t>
+          <t>556302</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>643217</t>
+          <t>566210</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>98,95%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>365851</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276672</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>664752</t>
+          <t>572194</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13466</t>
+          <t>5043</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8089</t>
+          <t>2473</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21829</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14082</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9020</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20950</t>
+          <t>6458</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>27548</t>
+          <t>8251</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>19388</t>
+          <t>4949</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37737</t>
+          <t>13456</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>3,16%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>310581</t>
+          <t>190397</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>302218</t>
+          <t>185617</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>315958</t>
+          <t>192967</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>245999</t>
+          <t>227348</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>239131</t>
+          <t>224098</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>251061</t>
+          <t>229127</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>721</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>556580</t>
+          <t>417745</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>546391</t>
+          <t>412540</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>564740</t>
+          <t>421047</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195440</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>230556</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>738</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>425996</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15029</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35173</t>
+          <t>10921</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9165</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14150</t>
+          <t>8560</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24195</t>
+          <t>10571</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6581</t>
+          <t>6124</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>47260</t>
+          <t>16208</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>459676</t>
+          <t>174608</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>439532</t>
+          <t>169757</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>470384</t>
+          <t>177685</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88399</t>
+          <t>78299</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83414</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92490</t>
+          <t>80749</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>484</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>548074</t>
+          <t>252907</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>525009</t>
+          <t>247270</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>565688</t>
+          <t>257354</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,68%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>474705</t>
+          <t>180678</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>502</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572269</t>
+          <t>263478</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29869</t>
+          <t>5669</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21223</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42951</t>
+          <t>9595</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36773</t>
+          <t>15397</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13868</t>
+          <t>9758</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58742</t>
+          <t>22415</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>66642</t>
+          <t>21066</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>37069</t>
+          <t>14209</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>87037</t>
+          <t>28864</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>506286</t>
+          <t>302764</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>493204</t>
+          <t>298838</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>514932</t>
+          <t>305672</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>530</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>599015</t>
+          <t>300981</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>577046</t>
+          <t>293963</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>621920</t>
+          <t>306620</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1105301</t>
+          <t>603745</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1084906</t>
+          <t>595947</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1134874</t>
+          <t>610602</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>97,73%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>635788</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>635788</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>635788</t>
+          <t>316378</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1171943</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1171943</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1171943</t>
+          <t>624811</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12393</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6275</t>
+          <t>552</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47338</t>
+          <t>6789</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25208</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>59767</t>
+          <t>11932</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>59731</t>
+          <t>8889</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39889</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>76420</t>
+          <t>14042</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>198308</t>
+          <t>148793</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>189951</t>
+          <t>146024</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>204426</t>
+          <t>150341</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>375369</t>
+          <t>148279</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>362940</t>
+          <t>143136</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>397499</t>
+          <t>151414</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>510</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>573677</t>
+          <t>297073</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>556988</t>
+          <t>291920</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>593519</t>
+          <t>300963</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210701</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210701</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210701</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>422707</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>422707</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>422707</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>633408</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>633408</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>633408</t>
+          <t>305962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10286</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22046</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43833</t>
+          <t>929</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>32944</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56759</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>54119</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>42246</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>69434</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>22,03%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>156475</t>
+          <t>8954</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144715</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>162862</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>446676</t>
+          <t>10505</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>433750</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>457565</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>603151</t>
+          <t>19459</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>587836</t>
+          <t>16204</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>615024</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>77,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>490509</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>657270</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>95640</t>
+          <t>23680</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62487</t>
+          <t>17479</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>121772</t>
+          <t>32626</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>167441</t>
+          <t>36613</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>124449</t>
+          <t>28762</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>198383</t>
+          <t>46777</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>263082</t>
+          <t>60293</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>203864</t>
+          <t>48919</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>302906</t>
+          <t>74378</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1982581</t>
+          <t>1116634</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1956449</t>
+          <t>1107688</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2015734</t>
+          <t>1122835</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2038108</t>
+          <t>1036295</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2007166</t>
+          <t>1026131</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2081100</t>
+          <t>1044146</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4020688</t>
+          <t>2152929</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3980864</t>
+          <t>2138844</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4079906</t>
+          <t>2164303</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>97,79%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>2063</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2078221</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2078221</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2078221</t>
+          <t>1140314</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2205549</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2205549</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2205549</t>
+          <t>1072908</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>3922</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4283770</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4283770</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4283770</t>
+          <t>2213222</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>767</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9076</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2960</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10210</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10193</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15892</t>
+          <t>6657</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>841</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>291118</t>
+          <t>160652</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>286447</t>
+          <t>159179</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>293700</t>
+          <t>161449</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>866</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>270885</t>
+          <t>165984</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>266462</t>
+          <t>164286</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>273712</t>
+          <t>167263</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>562001</t>
+          <t>326636</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>556302</t>
+          <t>324418</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>566210</t>
+          <t>328151</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>99,12%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>852</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276672</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572194</t>
+          <t>331075</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5043</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2473</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9823</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6458</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8251</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13456</t>
+          <t>7771</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>190397</t>
+          <t>88077</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>185617</t>
+          <t>86268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>192967</t>
+          <t>89100</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>653</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>227348</t>
+          <t>119360</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>224098</t>
+          <t>117291</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>229127</t>
+          <t>120639</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>417745</t>
+          <t>207437</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>412540</t>
+          <t>205035</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>421047</t>
+          <t>209180</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195440</t>
+          <t>90268</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>672</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>230556</t>
+          <t>122538</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>425996</t>
+          <t>212806</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10921</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8560</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10571</t>
+          <t>7396</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6124</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16208</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>898</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174608</t>
+          <t>150291</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>169757</t>
+          <t>148659</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>177685</t>
+          <t>151485</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>344</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78299</t>
+          <t>57607</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>55629</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80749</t>
+          <t>59147</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>252907</t>
+          <t>207898</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>247270</t>
+          <t>205311</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>257354</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>918</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180678</t>
+          <t>153359</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61935</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263478</t>
+          <t>215294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5669</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9595</t>
+          <t>6995</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15397</t>
+          <t>7923</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9758</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22415</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>21066</t>
+          <t>12813</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>14209</t>
+          <t>10363</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28864</t>
+          <t>16300</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>977</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>302764</t>
+          <t>165602</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>298838</t>
+          <t>163497</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>305672</t>
+          <t>167228</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>994</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>300981</t>
+          <t>175105</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>293963</t>
+          <t>172394</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>306620</t>
+          <t>177164</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>603745</t>
+          <t>340707</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>595947</t>
+          <t>337220</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>610602</t>
+          <t>343157</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>170492</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>316378</t>
+          <t>183028</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624811</t>
+          <t>353520</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6789</t>
+          <t>7545</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>5308</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11932</t>
+          <t>10138</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>8889</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4999</t>
+          <t>6297</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>14042</t>
+          <t>11141</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>148793</t>
+          <t>72803</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>146024</t>
+          <t>71794</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>150341</t>
+          <t>73385</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>148279</t>
+          <t>117707</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143136</t>
+          <t>115114</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>151414</t>
+          <t>119944</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>297073</t>
+          <t>190509</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>291920</t>
+          <t>187904</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>300963</t>
+          <t>192748</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>94,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>744</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125252</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305962</t>
+          <t>199045</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>555</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -7761,77 +7761,77 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2299</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4578</t>
+          <t>6115</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -7844,32 +7844,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8954</t>
+          <t>54618</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>53191</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -7879,72 +7879,72 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10505</t>
+          <t>118768</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>116960</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>120100</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>930</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19459</t>
+          <t>173385</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>16204</t>
+          <t>171456</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>174894</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>77,97%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,49%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55173</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122399</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>957</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>177571</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23680</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17479</t>
+          <t>10105</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32626</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36613</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>28762</t>
+          <t>24785</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>46777</t>
+          <t>34395</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>253</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>60293</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>48919</t>
+          <t>36413</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>74378</t>
+          <t>48049</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1116634</t>
+          <t>692042</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1107688</t>
+          <t>689025</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1122835</t>
+          <t>695196</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,12%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1036295</t>
+          <t>754530</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1026131</t>
+          <t>749616</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1044146</t>
+          <t>759226</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>8124</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2152929</t>
+          <t>1446572</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2138844</t>
+          <t>1441263</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2164303</t>
+          <t>1452899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140314</t>
+          <t>705301</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1072908</t>
+          <t>784011</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2213222</t>
+          <t>1489312</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
